--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf2-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf2-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fgf2</t>
+  </si>
+  <si>
+    <t>Cd44</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf2</t>
-  </si>
-  <si>
-    <t>Cd44</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H2">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I2">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J2">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N2">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O2">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P2">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q2">
-        <v>4.160892599164334</v>
+        <v>44.31340526637977</v>
       </c>
       <c r="R2">
-        <v>37.448033392479</v>
+        <v>398.820647397418</v>
       </c>
       <c r="S2">
-        <v>0.0002200646918891634</v>
+        <v>0.001751105251982268</v>
       </c>
       <c r="T2">
-        <v>0.0002200646918891634</v>
+        <v>0.001751105251982268</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H3">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I3">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J3">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>502.283203</v>
       </c>
       <c r="O3">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P3">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q3">
-        <v>66.63272228224568</v>
+        <v>169.7423111420021</v>
       </c>
       <c r="R3">
-        <v>599.694500540211</v>
+        <v>1527.680800278019</v>
       </c>
       <c r="S3">
-        <v>0.003524125929547804</v>
+        <v>0.006707601249274317</v>
       </c>
       <c r="T3">
-        <v>0.003524125929547804</v>
+        <v>0.00670760124927432</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H4">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I4">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J4">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N4">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O4">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P4">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q4">
-        <v>90.53850243476199</v>
+        <v>462.6962804870273</v>
       </c>
       <c r="R4">
-        <v>814.8465219128578</v>
+        <v>4164.266524383246</v>
       </c>
       <c r="S4">
-        <v>0.004788474388022832</v>
+        <v>0.01828408089974094</v>
       </c>
       <c r="T4">
-        <v>0.004788474388022832</v>
+        <v>0.01828408089974095</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H5">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I5">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J5">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N5">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O5">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P5">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q5">
-        <v>22.091922938267</v>
+        <v>115.2195718282699</v>
       </c>
       <c r="R5">
-        <v>198.827306444403</v>
+        <v>1036.976146454429</v>
       </c>
       <c r="S5">
-        <v>0.00116841569417708</v>
+        <v>0.004553060098784745</v>
       </c>
       <c r="T5">
-        <v>0.00116841569417708</v>
+        <v>0.004553060098784746</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H6">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I6">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J6">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N6">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O6">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P6">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q6">
-        <v>264.9685836952004</v>
+        <v>760.5472660316582</v>
       </c>
       <c r="R6">
-        <v>2384.717253256803</v>
+        <v>6844.925394284925</v>
       </c>
       <c r="S6">
-        <v>0.01401387523025785</v>
+        <v>0.03005407289110359</v>
       </c>
       <c r="T6">
-        <v>0.01401387523025785</v>
+        <v>0.03005407289110361</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H7">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I7">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J7">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N7">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O7">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P7">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q7">
-        <v>58.89356533926966</v>
+        <v>230.2631758567103</v>
       </c>
       <c r="R7">
-        <v>530.0420880534269</v>
+        <v>2072.368582710393</v>
       </c>
       <c r="S7">
-        <v>0.003114811065597711</v>
+        <v>0.009099166587558957</v>
       </c>
       <c r="T7">
-        <v>0.003114811065597712</v>
+        <v>0.00909916658755896</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H8">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I8">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J8">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N8">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O8">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P8">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q8">
-        <v>118.6535764164724</v>
+        <v>496.0516488666996</v>
       </c>
       <c r="R8">
-        <v>1067.882187748252</v>
+        <v>4464.464839800296</v>
       </c>
       <c r="S8">
-        <v>0.006275447422238795</v>
+        <v>0.01960216422916094</v>
       </c>
       <c r="T8">
-        <v>0.006275447422238798</v>
+        <v>0.01960216422916094</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H9">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I9">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J9">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>502.283203</v>
       </c>
       <c r="O9">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P9">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q9">
-        <v>1900.123739493274</v>
+        <v>1900.123739493275</v>
       </c>
       <c r="R9">
         <v>17101.11365543947</v>
       </c>
       <c r="S9">
-        <v>0.1004952988613195</v>
+        <v>0.07508600703650434</v>
       </c>
       <c r="T9">
-        <v>0.1004952988613195</v>
+        <v>0.07508600703650435</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,14 +1024,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H10">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I10">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J10">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N10">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O10">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P10">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q10">
-        <v>2581.829946640189</v>
+        <v>5179.499329387236</v>
       </c>
       <c r="R10">
-        <v>23236.4695197617</v>
+        <v>46615.49396448512</v>
       </c>
       <c r="S10">
-        <v>0.136549934461586</v>
+        <v>0.2046750508972923</v>
       </c>
       <c r="T10">
-        <v>0.136549934461586</v>
+        <v>0.2046750508972924</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H11">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I11">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J11">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N11">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O11">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P11">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q11">
-        <v>629.9815734414626</v>
+        <v>1289.78710265111</v>
       </c>
       <c r="R11">
-        <v>5669.834160973163</v>
+        <v>11608.08392385999</v>
       </c>
       <c r="S11">
-        <v>0.03331898085595609</v>
+        <v>0.05096771407691607</v>
       </c>
       <c r="T11">
-        <v>0.03331898085595609</v>
+        <v>0.05096771407691608</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H12">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I12">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J12">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N12">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O12">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P12">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q12">
-        <v>7555.943669336039</v>
+        <v>8513.692935313567</v>
       </c>
       <c r="R12">
-        <v>68003.49302402436</v>
+        <v>76623.2364178221</v>
       </c>
       <c r="S12">
-        <v>0.3996249304435934</v>
+        <v>0.3364303041748584</v>
       </c>
       <c r="T12">
-        <v>0.3996249304435935</v>
+        <v>0.3364303041748584</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H13">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I13">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J13">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N13">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O13">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P13">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q13">
-        <v>1679.431032856986</v>
+        <v>2577.604392404111</v>
       </c>
       <c r="R13">
-        <v>15114.87929571287</v>
+        <v>23198.439531637</v>
       </c>
       <c r="S13">
-        <v>0.08882312243988186</v>
+        <v>0.1018575882836943</v>
       </c>
       <c r="T13">
-        <v>0.08882312243988189</v>
+        <v>0.1018575882836943</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H14">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I14">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J14">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N14">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O14">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P14">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q14">
-        <v>1.249745079115</v>
+        <v>64.83645636440868</v>
       </c>
       <c r="R14">
-        <v>11.247705712035</v>
+        <v>583.528107279678</v>
       </c>
       <c r="S14">
-        <v>6.609754018420855E-05</v>
+        <v>0.002562101887163558</v>
       </c>
       <c r="T14">
-        <v>6.609754018420856E-05</v>
+        <v>0.002562101887163558</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H15">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I15">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J15">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>502.283203</v>
       </c>
       <c r="O15">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P15">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q15">
-        <v>20.013474223535</v>
+        <v>248.3557714284277</v>
       </c>
       <c r="R15">
-        <v>180.121268011815</v>
+        <v>2235.201942855849</v>
       </c>
       <c r="S15">
-        <v>0.001058488998134315</v>
+        <v>0.009814120424601636</v>
       </c>
       <c r="T15">
-        <v>0.001058488998134315</v>
+        <v>0.009814120424601638</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H16">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I16">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J16">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N16">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O16">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P16">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q16">
-        <v>27.19369586973</v>
+        <v>676.9867271412741</v>
       </c>
       <c r="R16">
-        <v>244.74326282757</v>
+        <v>6092.880544271467</v>
       </c>
       <c r="S16">
-        <v>0.001438242434832765</v>
+        <v>0.02675206309000996</v>
       </c>
       <c r="T16">
-        <v>0.001438242434832765</v>
+        <v>0.02675206309000997</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H17">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I17">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J17">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N17">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O17">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P17">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q17">
-        <v>6.635420483055</v>
+        <v>168.5816898128843</v>
       </c>
       <c r="R17">
-        <v>59.718784347495</v>
+        <v>1517.235208315959</v>
       </c>
       <c r="S17">
-        <v>0.0003509395470702153</v>
+        <v>0.006661737698667822</v>
       </c>
       <c r="T17">
-        <v>0.0003509395470702153</v>
+        <v>0.006661737698667824</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H18">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I18">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J18">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N18">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O18">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P18">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q18">
-        <v>79.584650577055</v>
+        <v>1112.782674468575</v>
       </c>
       <c r="R18">
-        <v>716.2618551934951</v>
+        <v>10015.04407021717</v>
       </c>
       <c r="S18">
-        <v>0.004209138109420024</v>
+        <v>0.04397314026902787</v>
       </c>
       <c r="T18">
-        <v>0.004209138109420025</v>
+        <v>0.04397314026902788</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H19">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I19">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J19">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N19">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O19">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P19">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q19">
-        <v>17.688979400495</v>
+        <v>336.905915129267</v>
       </c>
       <c r="R19">
-        <v>159.200814604455</v>
+        <v>3032.153236163403</v>
       </c>
       <c r="S19">
-        <v>0.0009355492142204045</v>
+        <v>0.01331330133309227</v>
       </c>
       <c r="T19">
-        <v>0.0009355492142204047</v>
+        <v>0.01331330133309227</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H20">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I20">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J20">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N20">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O20">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P20">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q20">
-        <v>24.87356369125122</v>
+        <v>13.72464563522978</v>
       </c>
       <c r="R20">
-        <v>223.862073221261</v>
+        <v>123.521810717068</v>
       </c>
       <c r="S20">
-        <v>0.001315533386033571</v>
+        <v>0.0005423482783364484</v>
       </c>
       <c r="T20">
-        <v>0.001315533386033571</v>
+        <v>0.0005423482783364484</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H21">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I21">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J21">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>502.283203</v>
       </c>
       <c r="O21">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P21">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q21">
-        <v>398.3263739952721</v>
+        <v>52.57219696217712</v>
       </c>
       <c r="R21">
-        <v>3584.937365957449</v>
+        <v>473.149772659594</v>
       </c>
       <c r="S21">
-        <v>0.02106701114616662</v>
+        <v>0.002077462782544481</v>
       </c>
       <c r="T21">
-        <v>0.02106701114616662</v>
+        <v>0.002077462782544481</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H22">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I22">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J22">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N22">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O22">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P22">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q22">
-        <v>541.2336783876245</v>
+        <v>143.3052244179773</v>
       </c>
       <c r="R22">
-        <v>4871.103105488622</v>
+        <v>1289.747019761796</v>
       </c>
       <c r="S22">
-        <v>0.02862520957602516</v>
+        <v>0.005662903349592178</v>
       </c>
       <c r="T22">
-        <v>0.02862520957602517</v>
+        <v>0.005662903349592179</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H23">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I23">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J23">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N23">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O23">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P23">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q23">
-        <v>132.0641759360863</v>
+        <v>35.68553994169489</v>
       </c>
       <c r="R23">
-        <v>1188.577583424777</v>
+        <v>321.169859475254</v>
       </c>
       <c r="S23">
-        <v>0.006984718181096044</v>
+        <v>0.001410163268565933</v>
       </c>
       <c r="T23">
-        <v>0.006984718181096046</v>
+        <v>0.001410163268565933</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H24">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I24">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J24">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N24">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O24">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P24">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q24">
-        <v>1583.966128817375</v>
+        <v>235.5549444322833</v>
       </c>
       <c r="R24">
-        <v>14255.69515935638</v>
+        <v>2119.99449989055</v>
       </c>
       <c r="S24">
-        <v>0.08377409649339991</v>
+        <v>0.009308278112373121</v>
       </c>
       <c r="T24">
-        <v>0.08377409649339994</v>
+        <v>0.009308278112373123</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H25">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I25">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J25">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N25">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O25">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P25">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q25">
-        <v>352.062162999688</v>
+        <v>71.31657954243533</v>
       </c>
       <c r="R25">
-        <v>3168.559466997192</v>
+        <v>641.849215881918</v>
       </c>
       <c r="S25">
-        <v>0.01862015170541027</v>
+        <v>0.002818172881083398</v>
       </c>
       <c r="T25">
-        <v>0.01862015170541028</v>
+        <v>0.002818172881083398</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H26">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I26">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J26">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N26">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O26">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P26">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q26">
-        <v>1.365426785048111</v>
+        <v>10.08703860092378</v>
       </c>
       <c r="R26">
-        <v>12.288841065433</v>
+        <v>90.783347408314</v>
       </c>
       <c r="S26">
-        <v>7.221580888898014E-05</v>
+        <v>0.0003986032254764819</v>
       </c>
       <c r="T26">
-        <v>7.221580888898016E-05</v>
+        <v>0.0003986032254764819</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H27">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I27">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J27">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>502.283203</v>
       </c>
       <c r="O27">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P27">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q27">
-        <v>21.86600629468855</v>
+        <v>38.63835862775412</v>
       </c>
       <c r="R27">
-        <v>196.794056652197</v>
+        <v>347.745227649787</v>
       </c>
       <c r="S27">
-        <v>0.001156467229904844</v>
+        <v>0.001526847966530967</v>
       </c>
       <c r="T27">
-        <v>0.001156467229904844</v>
+        <v>0.001526847966530967</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H28">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I28">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J28">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N28">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O28">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P28">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q28">
-        <v>29.71085971490732</v>
+        <v>105.3233262873953</v>
       </c>
       <c r="R28">
-        <v>267.3977374341659</v>
+        <v>947.9099365865579</v>
       </c>
       <c r="S28">
-        <v>0.001571372255615629</v>
+        <v>0.004161996323898568</v>
       </c>
       <c r="T28">
-        <v>0.001571372255615629</v>
+        <v>0.004161996323898568</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H29">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I29">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J29">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N29">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O29">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P29">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q29">
-        <v>7.249623150375666</v>
+        <v>26.22737434930189</v>
       </c>
       <c r="R29">
-        <v>65.24660835338099</v>
+        <v>236.046369143717</v>
       </c>
       <c r="S29">
-        <v>0.0003834240002302345</v>
+        <v>0.001036410826310654</v>
       </c>
       <c r="T29">
-        <v>0.0003834240002302346</v>
+        <v>0.001036410826310654</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H30">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I30">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J30">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N30">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O30">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P30">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q30">
-        <v>86.9513434320201</v>
+        <v>173.1229993310583</v>
       </c>
       <c r="R30">
-        <v>782.5620908881809</v>
+        <v>1558.106993979525</v>
       </c>
       <c r="S30">
-        <v>0.004598753787963513</v>
+        <v>0.006841193800051773</v>
       </c>
       <c r="T30">
-        <v>0.004598753787963514</v>
+        <v>0.006841193800051773</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H31">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I31">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J31">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N31">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O31">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P31">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q31">
-        <v>19.32634637033655</v>
+        <v>52.41469323505433</v>
       </c>
       <c r="R31">
-        <v>173.937117333029</v>
+        <v>471.732239115489</v>
       </c>
       <c r="S31">
-        <v>0.001022147618082124</v>
+        <v>0.002071238805801697</v>
       </c>
       <c r="T31">
-        <v>0.001022147618082124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H32">
-        <v>1.372081</v>
-      </c>
-      <c r="I32">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J32">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>10.45505566666667</v>
-      </c>
-      <c r="N32">
-        <v>31.365167</v>
-      </c>
-      <c r="O32">
-        <v>0.008202258778219226</v>
-      </c>
-      <c r="P32">
-        <v>0.008202258778219226</v>
-      </c>
-      <c r="Q32">
-        <v>4.781727744725223</v>
-      </c>
-      <c r="R32">
-        <v>43.035549702527</v>
-      </c>
-      <c r="S32">
-        <v>0.0002528999289845068</v>
-      </c>
-      <c r="T32">
-        <v>0.0002528999289845069</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H33">
-        <v>1.372081</v>
-      </c>
-      <c r="I33">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J33">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>167.4277343333333</v>
-      </c>
-      <c r="N33">
-        <v>502.283203</v>
-      </c>
-      <c r="O33">
-        <v>0.1313513430666197</v>
-      </c>
-      <c r="P33">
-        <v>0.1313513430666197</v>
-      </c>
-      <c r="Q33">
-        <v>76.57480438393813</v>
-      </c>
-      <c r="R33">
-        <v>689.1732394554431</v>
-      </c>
-      <c r="S33">
-        <v>0.004049950901546631</v>
-      </c>
-      <c r="T33">
-        <v>0.004049950901546632</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H34">
-        <v>1.372081</v>
-      </c>
-      <c r="I34">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J34">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>227.495678</v>
-      </c>
-      <c r="N34">
-        <v>682.4870339999999</v>
-      </c>
-      <c r="O34">
-        <v>0.1784761823728629</v>
-      </c>
-      <c r="P34">
-        <v>0.1784761823728629</v>
-      </c>
-      <c r="Q34">
-        <v>104.0474991219727</v>
-      </c>
-      <c r="R34">
-        <v>936.4274920977539</v>
-      </c>
-      <c r="S34">
-        <v>0.005502949256780512</v>
-      </c>
-      <c r="T34">
-        <v>0.005502949256780514</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H35">
-        <v>1.372081</v>
-      </c>
-      <c r="I35">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J35">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>55.51027300000001</v>
-      </c>
-      <c r="N35">
-        <v>166.530819</v>
-      </c>
-      <c r="O35">
-        <v>0.04354923001005501</v>
-      </c>
-      <c r="P35">
-        <v>0.04354923001005501</v>
-      </c>
-      <c r="Q35">
-        <v>25.38819696270434</v>
-      </c>
-      <c r="R35">
-        <v>228.493772664339</v>
-      </c>
-      <c r="S35">
-        <v>0.00134275173152535</v>
-      </c>
-      <c r="T35">
-        <v>0.00134275173152535</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H36">
-        <v>1.372081</v>
-      </c>
-      <c r="I36">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J36">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>665.7853396666667</v>
-      </c>
-      <c r="N36">
-        <v>1997.356019</v>
-      </c>
-      <c r="O36">
-        <v>0.522325640417338</v>
-      </c>
-      <c r="P36">
-        <v>0.522325640417338</v>
-      </c>
-      <c r="Q36">
-        <v>304.5038048783933</v>
-      </c>
-      <c r="R36">
-        <v>2740.534243905539</v>
-      </c>
-      <c r="S36">
-        <v>0.01610484635270321</v>
-      </c>
-      <c r="T36">
-        <v>0.01610484635270322</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H37">
-        <v>1.372081</v>
-      </c>
-      <c r="I37">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J37">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>147.9815903333333</v>
-      </c>
-      <c r="N37">
-        <v>443.9447709999999</v>
-      </c>
-      <c r="O37">
-        <v>0.1160953453549051</v>
-      </c>
-      <c r="P37">
-        <v>0.1160953453549051</v>
-      </c>
-      <c r="Q37">
-        <v>67.68090948205011</v>
-      </c>
-      <c r="R37">
-        <v>609.128185338451</v>
-      </c>
-      <c r="S37">
-        <v>0.003579563311712739</v>
-      </c>
-      <c r="T37">
-        <v>0.00357956331171274</v>
+        <v>0.002071238805801697</v>
       </c>
     </row>
   </sheetData>
